--- a/Witt.xlsx
+++ b/Witt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Wittgenstein-2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Witt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE80E809-5C11-A146-976B-6CF543772667}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854E601-8432-E341-9B48-CAB47C8DD129}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
   <si>
     <t>Tema</t>
   </si>
@@ -363,6 +363,27 @@
   </si>
   <si>
     <t>24%</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Derly</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Juan Esteban</t>
   </si>
 </sst>
 </file>
@@ -602,62 +623,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -703,6 +679,51 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1023,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1184,7 @@
       </c>
       <c r="D4" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F4, " a cargo de ",G4, ".&lt;br&gt; Presentación de ",H4, " a cargo de ", I4, ".")</f>
-        <v>Presentación de Tomasini, Cap 2 a cargo de (Por definir).&lt;br&gt; Presentación de Tomasini, Cap 3 a cargo de (Por definir).</v>
+        <v>Presentación de Tomasini, Cap 2 a cargo de Santiago.&lt;br&gt; Presentación de Tomasini, Cap 3 a cargo de Laura.</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>_xlfn.CONCAT("Leer ",F5, " y ", H5, ". &lt;br&gt; Control de lectura.")</f>
@@ -1173,13 +1194,13 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>1</v>
@@ -1201,7 +1222,7 @@
       </c>
       <c r="D5" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F5, " a cargo de ",G5, ".&lt;br&gt; Presentación de ",H5, " a cargo de ", I5, ".")</f>
-        <v>Presentación de Tomasini, Cap 4 a cargo de (Por definir).&lt;br&gt; Presentación de Tomasini, Cap 5 a cargo de (Por definir).</v>
+        <v>Presentación de Tomasini, Cap 4 a cargo de Daniela.&lt;br&gt; Presentación de Tomasini, Cap 5 a cargo de Derly.</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>_xlfn.CONCAT("Leer ",F6, " y ", H6, ". &lt;br&gt; Control de lectura.")</f>
@@ -1211,13 +1232,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>1</v>
@@ -1239,7 +1260,7 @@
       </c>
       <c r="D6" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F6, " a cargo de ",G6, ".&lt;br&gt; Presentación de ",H6, " a cargo de ", I6,  ".&lt;br&gt; Presentación de ",J6, " a cargo de ", K6, ".")</f>
-        <v>Presentación de Tomasini, Cap 6 a cargo de (Por definir).&lt;br&gt; Presentación de Tomasini, Cap 7 a cargo de (Por definir).&lt;br&gt; Presentación de Tomasini, Cap 8 a cargo de (Por definir).</v>
+        <v>Presentación de Tomasini, Cap 6 a cargo de Nicolás.&lt;br&gt; Presentación de Tomasini, Cap 7 a cargo de Katherine.&lt;br&gt; Presentación de Tomasini, Cap 8 a cargo de Juan Esteban.</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1248,19 +1269,19 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1667,250 +1688,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="14" t="s">
         <v>65</v>
       </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="21">
         <v>0.1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="21">
         <v>0.2</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="21">
         <v>0.1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="21">
         <v>0.1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="22">
         <v>0.5</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="22">
         <v>0.5</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="22">
         <v>0.5</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="18">
         <v>2</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="23">
         <v>0.2</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="19">
         <v>3</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="23">
         <v>0.2</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="19">
         <v>3</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="23">
         <v>0.6</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="19">
         <v>3</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="1"/>
@@ -1952,466 +1973,435 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="22" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18" t="s">
+      <c r="O7" s="36"/>
+      <c r="P7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="R7" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="10"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="R9" s="10"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="11" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="R10" s="10"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="11" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="R12" s="10"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="10"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="R14" s="10"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="N14:O14"/>
@@ -2422,6 +2412,37 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Witt.xlsx
+++ b/Witt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Witt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854E601-8432-E341-9B48-CAB47C8DD129}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF497A0-EC46-CD4A-ADF9-343B75A02739}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
@@ -383,7 +383,7 @@
     <t>Katherine</t>
   </si>
   <si>
-    <t>Juan Esteban</t>
+    <t>Esteban</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="D6" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F6, " a cargo de ",G6, ".&lt;br&gt; Presentación de ",H6, " a cargo de ", I6,  ".&lt;br&gt; Presentación de ",J6, " a cargo de ", K6, ".")</f>
-        <v>Presentación de Tomasini, Cap 6 a cargo de Nicolás.&lt;br&gt; Presentación de Tomasini, Cap 7 a cargo de Katherine.&lt;br&gt; Presentación de Tomasini, Cap 8 a cargo de Juan Esteban.</v>
+        <v>Presentación de Tomasini, Cap 6 a cargo de Nicolás.&lt;br&gt; Presentación de Tomasini, Cap 7 a cargo de Katherine.&lt;br&gt; Presentación de Tomasini, Cap 8 a cargo de Esteban.</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>

--- a/Witt.xlsx
+++ b/Witt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Witt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF497A0-EC46-CD4A-ADF9-343B75A02739}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4075F9C7-0D0E-154B-91D2-8CA2AF2D818F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
   <si>
     <t>Tema</t>
   </si>
@@ -363,27 +363,6 @@
   </si>
   <si>
     <t>24%</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Daniela</t>
-  </si>
-  <si>
-    <t>Derly</t>
-  </si>
-  <si>
-    <t>Nicolás</t>
-  </si>
-  <si>
-    <t>Katherine</t>
-  </si>
-  <si>
-    <t>Esteban</t>
   </si>
 </sst>
 </file>
@@ -680,50 +659,50 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1044,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,7 +1163,7 @@
       </c>
       <c r="D4" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F4, " a cargo de ",G4, ".&lt;br&gt; Presentación de ",H4, " a cargo de ", I4, ".")</f>
-        <v>Presentación de Tomasini, Cap 2 a cargo de Santiago.&lt;br&gt; Presentación de Tomasini, Cap 3 a cargo de Laura.</v>
+        <v>Presentación de Tomasini, Cap 2 a cargo de (Por definir).&lt;br&gt; Presentación de Tomasini, Cap 3 a cargo de (Por definir).</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>_xlfn.CONCAT("Leer ",F5, " y ", H5, ". &lt;br&gt; Control de lectura.")</f>
@@ -1194,13 +1173,13 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>1</v>
@@ -1222,7 +1201,7 @@
       </c>
       <c r="D5" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F5, " a cargo de ",G5, ".&lt;br&gt; Presentación de ",H5, " a cargo de ", I5, ".")</f>
-        <v>Presentación de Tomasini, Cap 4 a cargo de Daniela.&lt;br&gt; Presentación de Tomasini, Cap 5 a cargo de Derly.</v>
+        <v>Presentación de Tomasini, Cap 4 a cargo de (Por definir).&lt;br&gt; Presentación de Tomasini, Cap 5 a cargo de (Por definir).</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>_xlfn.CONCAT("Leer ",F6, " y ", H6, ". &lt;br&gt; Control de lectura.")</f>
@@ -1232,13 +1211,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>1</v>
@@ -1260,7 +1239,7 @@
       </c>
       <c r="D6" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F6, " a cargo de ",G6, ".&lt;br&gt; Presentación de ",H6, " a cargo de ", I6,  ".&lt;br&gt; Presentación de ",J6, " a cargo de ", K6, ".")</f>
-        <v>Presentación de Tomasini, Cap 6 a cargo de Nicolás.&lt;br&gt; Presentación de Tomasini, Cap 7 a cargo de Katherine.&lt;br&gt; Presentación de Tomasini, Cap 8 a cargo de Esteban.</v>
+        <v>Presentación de Tomasini, Cap 6 a cargo de (Por definir).&lt;br&gt; Presentación de Tomasini, Cap 7 a cargo de (Por definir).&lt;br&gt; Presentación de Tomasini, Cap 8 a cargo de (Por definir).</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1269,19 +1248,19 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1973,170 +1952,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="12" t="s">
         <v>92</v>
       </c>
@@ -2158,10 +2137,10 @@
       <c r="M7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="12" t="s">
         <v>87</v>
       </c>
@@ -2176,15 +2155,15 @@
       <c r="A8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="39" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="11" t="s">
         <v>63</v>
       </c>
@@ -2194,8 +2173,8 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="43"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="10" t="s">
         <v>62</v>
@@ -2206,15 +2185,15 @@
       <c r="A9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="39" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="11" t="s">
         <v>63</v>
       </c>
@@ -2224,8 +2203,8 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="43"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="10" t="s">
         <v>62</v>
@@ -2236,15 +2215,15 @@
       <c r="A10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="39" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="11" t="s">
         <v>63</v>
       </c>
@@ -2254,8 +2233,8 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="43"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="10" t="s">
         <v>62</v>
@@ -2266,15 +2245,15 @@
       <c r="A11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="39" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="11" t="s">
         <v>63</v>
       </c>
@@ -2284,8 +2263,8 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="10" t="s">
         <v>62</v>
@@ -2296,15 +2275,15 @@
       <c r="A12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="39" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="11" t="s">
         <v>63</v>
       </c>
@@ -2314,8 +2293,8 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="10" t="s">
         <v>62</v>
@@ -2326,15 +2305,15 @@
       <c r="A13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="39" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="11" t="s">
         <v>63</v>
       </c>
@@ -2344,8 +2323,8 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="43"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="10" t="s">
         <v>62</v>
@@ -2356,15 +2335,15 @@
       <c r="A14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="39" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="11" t="s">
         <v>63</v>
       </c>
@@ -2374,8 +2353,8 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="10" t="s">
         <v>62</v>
@@ -2383,25 +2362,56 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="N14:O14"/>
@@ -2412,37 +2422,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Witt.xlsx
+++ b/Witt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Witt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4075F9C7-0D0E-154B-91D2-8CA2AF2D818F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE889A5A-F2AF-6A4D-A143-FE93C6D76E5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="116">
   <si>
     <t>Tema</t>
   </si>
@@ -122,9 +123,6 @@
     <t>Leer **todo** el *Tractatus Logico-Philosophicus*.</t>
   </si>
   <si>
-    <t>Definición ostensiva</t>
-  </si>
-  <si>
     <t>La noción de filosofía</t>
   </si>
   <si>
@@ -197,12 +195,6 @@
     <t>Taller sobre el programa</t>
   </si>
   <si>
-    <t>Auto-evaluación filosofía por recortes</t>
-  </si>
-  <si>
-    <t>Co-evaluación filosofía por recortes</t>
-  </si>
-  <si>
     <t>Presentación oral</t>
   </si>
   <si>
@@ -363,6 +355,36 @@
   </si>
   <si>
     <t>24%</t>
+  </si>
+  <si>
+    <t>Derly</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Katherin</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Crítica a la definición ostensiva</t>
+  </si>
+  <si>
+    <t>Taller filosofía por recortes</t>
+  </si>
+  <si>
+    <t>Taller orden del TLP</t>
   </si>
 </sst>
 </file>
@@ -647,9 +669,6 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -659,6 +678,33 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -677,32 +723,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1023,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,10 +1114,10 @@
         <v xml:space="preserve"> Martes 22 Enero</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1122,10 +1150,10 @@
         <v xml:space="preserve"> Martes 29 Enero</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>_xlfn.CONCAT("Leer ",F4, " y ", H4, ". &lt;br&gt; Control de lectura.")</f>
@@ -1173,13 +1201,13 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>1</v>
@@ -1211,13 +1239,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>1</v>
@@ -1248,19 +1276,19 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1272,7 +1300,7 @@
         <v xml:space="preserve"> Martes 26 Febrero</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>25</v>
@@ -1297,23 +1325,25 @@
         <v xml:space="preserve"> Martes 05 Marzo</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>_xlfn.CONCAT("Presentación de ",F8, " a cargo de ",G8, ".")</f>
-        <v>Presentación de IF Parte I, §§1-88 a cargo de (Por definir).</v>
+        <f>_xlfn.CONCAT("Presentación de ",F8, " a cargo de ",G8, " y ", H8)</f>
+        <v>Presentación de IF Parte I, §§1-88 a cargo de Derly y Laura</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" ref="E8:E12" si="1">_xlfn.CONCAT("Leer ", F9, ". &lt;br&gt;Control de lectura")</f>
         <v>Leer IF Parte I, §§ 89-133. &lt;br&gt;Control de lectura</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1327,21 +1357,21 @@
         <v xml:space="preserve"> Martes 12 Marzo</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" ref="D9:D13" si="2">_xlfn.CONCAT("Presentación de ",F9, " a cargo de ",G9, ".")</f>
-        <v>Presentación de IF Parte I, §§ 89-133 a cargo de (Por definir).</v>
+        <v>Presentación de IF Parte I, §§ 89-133 a cargo de Nicolás.</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Leer IF Parte I, §§ 134 - 242. &lt;br&gt;Control de lectura</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1357,21 +1387,21 @@
         <v xml:space="preserve"> Martes 19 Marzo</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Presentación de IF Parte I, §§ 134 - 242 a cargo de (Por definir).</v>
+        <v>Presentación de IF Parte I, §§ 134 - 242 a cargo de Daniela.</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Leer IF Parte I, §§ 243 - 275. &lt;br&gt;Control de lectura</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1387,21 +1417,21 @@
         <v xml:space="preserve"> Martes 26 Marzo</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Presentación de IF Parte I, §§ 243 - 275 a cargo de (Por definir).</v>
+        <v>Presentación de IF Parte I, §§ 243 - 275 a cargo de Esteban.</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Leer IF Parte I, §§276 - 307. &lt;br&gt;Control de lectura</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1417,21 +1447,21 @@
         <v xml:space="preserve"> Martes 02 Abril</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Presentación de IF Parte I, §§276 - 307 a cargo de (Por definir).</v>
+        <v>Presentación de IF Parte I, §§276 - 307 a cargo de Katherin.</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Leer IF Parte II, 11. &lt;br&gt;Control de lectura</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1447,20 +1477,20 @@
         <v xml:space="preserve"> Martes 09 Abril</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Presentación de IF Parte II, 11 a cargo de (Por definir).</v>
+        <v>Presentación de IF Parte II, 11 a cargo de Santiago.</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1476,10 +1506,10 @@
         <v xml:space="preserve"> Martes 16 Abril</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E14" s="3" t="str">
         <f>_xlfn.CONCAT("Leer ", F15, ". &lt;br&gt;Control de lectura")</f>
@@ -1501,7 +1531,7 @@
         <v xml:space="preserve"> Martes 23 Abril</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F15, " a cargo de ",G15, ".")</f>
@@ -1512,10 +1542,10 @@
         <v>Leer (Comentarista). &lt;br&gt;Control de lectura</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1531,7 +1561,7 @@
         <v xml:space="preserve"> Martes 30 Abril</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F16, " a cargo de ",G16, ".")</f>
@@ -1542,10 +1572,10 @@
         <v>Leer (Comentarista). &lt;br&gt;Control de lectura</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1561,7 +1591,7 @@
         <v xml:space="preserve"> Martes 07 Mayo</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F17, " a cargo de ",G17, ".")</f>
@@ -1572,10 +1602,10 @@
         <v>Leer (Comentarista). &lt;br&gt;Control de lectura</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1591,20 +1621,20 @@
         <v xml:space="preserve"> Martes 14 Mayo</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>_xlfn.CONCAT("Presentación de ",F18, " a cargo de ",G18, ".")</f>
         <v>Presentación de (Comentarista) a cargo de (Por definir).</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1621,7 +1651,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1653,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE15673D-5BDD-6C46-9831-D4ADE4E19829}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1668,49 +1698,49 @@
   <sheetData>
     <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>52</v>
+      <c r="A2" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="21">
         <v>0.1</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>104</v>
+      <c r="C2" s="42" t="s">
+        <v>101</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -1724,14 +1754,14 @@
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>55</v>
+      <c r="A3" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B3" s="21">
         <v>0.2</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>105</v>
+      <c r="C3" s="42" t="s">
+        <v>102</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -1744,15 +1774,15 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>53</v>
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B4" s="21">
         <v>0.1</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>104</v>
+      <c r="C4" s="42" t="s">
+        <v>101</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -1765,15 +1795,15 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>54</v>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="B5" s="21">
         <v>0.1</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>104</v>
+      <c r="C5" s="42" t="s">
+        <v>101</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -1787,14 +1817,14 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>58</v>
+      <c r="A6" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="B6" s="22">
         <v>0.5</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>106</v>
+      <c r="C6" s="43" t="s">
+        <v>103</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
@@ -1808,14 +1838,14 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>58</v>
+      <c r="A7" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="22">
         <v>0.5</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>106</v>
+      <c r="C7" s="43" t="s">
+        <v>103</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
@@ -1829,14 +1859,14 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>55</v>
+      <c r="A8" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="B8" s="22">
         <v>0.5</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>106</v>
+      <c r="C8" s="43" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="18">
         <v>2</v>
@@ -1850,14 +1880,14 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>60</v>
+      <c r="A9" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="B9" s="23">
         <v>0.2</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>107</v>
+      <c r="C9" s="44" t="s">
+        <v>104</v>
       </c>
       <c r="D9" s="19">
         <v>3</v>
@@ -1871,14 +1901,14 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>58</v>
+      <c r="A10" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="B10" s="23">
         <v>0.2</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>107</v>
+      <c r="C10" s="44" t="s">
+        <v>104</v>
       </c>
       <c r="D10" s="19">
         <v>3</v>
@@ -1892,14 +1922,14 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>59</v>
+      <c r="A11" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="B11" s="23">
         <v>0.6</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>108</v>
+      <c r="C11" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="D11" s="19">
         <v>3</v>
@@ -1952,220 +1982,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+      <c r="A1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
+      <c r="A2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="A3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="A4" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
+      <c r="A5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="A6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="41"/>
+        <v>92</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="35"/>
       <c r="G7" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="K7" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>84</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="33"/>
       <c r="P7" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="32"/>
+        <v>81</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="38"/>
       <c r="G8" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -2173,29 +2203,29 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="38"/>
       <c r="G9" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -2203,29 +2233,29 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="38"/>
       <c r="G10" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -2233,29 +2263,29 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="32"/>
+        <v>72</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="38"/>
       <c r="G11" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2263,29 +2293,29 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="32"/>
+        <v>69</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="38"/>
       <c r="G12" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2293,29 +2323,29 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="38"/>
       <c r="G13" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2323,29 +2353,29 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="32"/>
+        <v>63</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="38"/>
       <c r="G14" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -2353,65 +2383,34 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
+      <c r="A15" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="N14:O14"/>
@@ -2422,6 +2421,37 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Witt.xlsx
+++ b/Witt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Witt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE889A5A-F2AF-6A4D-A143-FE93C6D76E5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04495279-72D9-7B4D-B63F-264B2C6F001A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="118">
   <si>
     <t>Tema</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>Taller orden del TLP</t>
+  </si>
+  <si>
+    <t>Ramirez, Laura</t>
+  </si>
+  <si>
+    <t>Primer corte</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,6 +459,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -600,7 +613,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -678,59 +691,66 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1051,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1681,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE15673D-5BDD-6C46-9831-D4ADE4E19829}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1716,7 +1736,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>71</v>
@@ -1739,19 +1759,33 @@
       <c r="B2" s="21">
         <v>0.1</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="27" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="E2" s="46">
+        <v>5</v>
+      </c>
+      <c r="F2" s="46">
+        <v>5</v>
+      </c>
+      <c r="G2" s="46">
+        <v>5</v>
+      </c>
+      <c r="H2" s="46">
+        <v>5</v>
+      </c>
+      <c r="I2" s="46">
+        <v>5</v>
+      </c>
+      <c r="J2" s="46">
+        <v>5</v>
+      </c>
+      <c r="K2" s="46">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -1760,19 +1794,33 @@
       <c r="B3" s="21">
         <v>0.2</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="27" t="s">
         <v>102</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="E3" s="47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F3" s="47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G3" s="47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H3" s="47">
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="I3" s="46">
+        <v>4.5</v>
+      </c>
+      <c r="J3" s="46">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K3" s="46">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
@@ -1781,19 +1829,33 @@
       <c r="B4" s="21">
         <v>0.1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="27" t="s">
         <v>101</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="E4" s="46">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F4" s="46">
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="46">
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="46">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I4" s="46">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J4" s="46">
+        <v>4.8</v>
+      </c>
+      <c r="K4" s="46">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
@@ -1802,19 +1864,34 @@
       <c r="B5" s="21">
         <v>0.1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="27" t="s">
         <v>101</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="E5" s="46">
+        <v>5</v>
+      </c>
+      <c r="F5" s="46">
+        <v>3.7</v>
+      </c>
+      <c r="G5" s="46">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H5" s="46">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I5" s="46">
+        <v>5</v>
+      </c>
+      <c r="J5" s="46">
+        <v>5</v>
+      </c>
+      <c r="K5" s="46">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
@@ -1823,7 +1900,7 @@
       <c r="B6" s="22">
         <v>0.5</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="18">
@@ -1844,7 +1921,7 @@
       <c r="B7" s="22">
         <v>0.5</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="18">
@@ -1865,7 +1942,7 @@
       <c r="B8" s="22">
         <v>0.5</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="18">
@@ -1886,7 +1963,7 @@
       <c r="B9" s="23">
         <v>0.2</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="29" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="19">
@@ -1907,7 +1984,7 @@
       <c r="B10" s="23">
         <v>0.2</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="29" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="19">
@@ -1928,7 +2005,7 @@
       <c r="B11" s="23">
         <v>0.6</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="19">
@@ -1942,8 +2019,228 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="45">
+        <f>(E2+E3+E4+E5+E3)/5</f>
+        <v>4.68</v>
+      </c>
+      <c r="F13" s="45">
+        <f>(F2+F3+F4+F5+F3)/5</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G13" s="45">
+        <f t="shared" ref="F13:J13" si="0">(G2+G3+G4+G5+G3)/5</f>
+        <v>4.5299999999999994</v>
+      </c>
+      <c r="H13" s="45">
+        <f t="shared" si="0"/>
+        <v>4.6185714285714283</v>
+      </c>
+      <c r="I13" s="45">
+        <f t="shared" si="0"/>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="J13" s="45">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K13" s="45">
+        <f>(K2+K3+K4+K5+K3)/5</f>
+        <v>4.37</v>
+      </c>
+    </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="1"/>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>4.5</v>
+      </c>
+      <c r="F24">
+        <v>4.8</v>
+      </c>
+      <c r="G24">
+        <v>4.8</v>
+      </c>
+      <c r="H24">
+        <v>4.5</v>
+      </c>
+      <c r="I24">
+        <v>4.5</v>
+      </c>
+      <c r="J24">
+        <v>4.7</v>
+      </c>
+      <c r="K24">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>4.8</v>
+      </c>
+      <c r="F25">
+        <v>4.3</v>
+      </c>
+      <c r="G25">
+        <v>4.2</v>
+      </c>
+      <c r="H25">
+        <v>4.8</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>3.8</v>
+      </c>
+      <c r="K25">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>4.2</v>
+      </c>
+      <c r="F26">
+        <v>4.2</v>
+      </c>
+      <c r="G26">
+        <v>4.3</v>
+      </c>
+      <c r="H26">
+        <v>4.7</v>
+      </c>
+      <c r="I26">
+        <v>4.2</v>
+      </c>
+      <c r="J26">
+        <v>4.3</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>4.8</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>3.7</v>
+      </c>
+      <c r="K27">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>4.2</v>
+      </c>
+      <c r="F28">
+        <v>4.5</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>4.2</v>
+      </c>
+      <c r="I28">
+        <v>4.5</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F29">
+        <v>4.5</v>
+      </c>
+      <c r="H29">
+        <v>4.5</v>
+      </c>
+      <c r="J29">
+        <v>4.3</v>
+      </c>
+      <c r="K29">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>4.2</v>
+      </c>
+      <c r="I30">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>4.2</v>
+      </c>
+      <c r="F31">
+        <v>4.2</v>
+      </c>
+      <c r="H31">
+        <v>4.5</v>
+      </c>
+      <c r="J31">
+        <v>4.2</v>
+      </c>
+      <c r="K31">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E33" s="45">
+        <f>AVERAGE(E24:E32)</f>
+        <v>4.3857142857142852</v>
+      </c>
+      <c r="F33" s="45">
+        <f>AVERAGE(F24:F32)</f>
+        <v>4.4142857142857146</v>
+      </c>
+      <c r="G33" s="45">
+        <f>AVERAGE(G24:G30)</f>
+        <v>4.416666666666667</v>
+      </c>
+      <c r="H33" s="45">
+        <f>AVERAGE(H24:H32)</f>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="I33" s="45">
+        <f>AVERAGE(I24:I30)</f>
+        <v>4.4833333333333334</v>
+      </c>
+      <c r="J33" s="45">
+        <f>AVERAGE(J24:J31)</f>
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="K33" s="45">
+        <f>AVERAGE(K24:K31)</f>
+        <v>4.0142857142857142</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,170 +2279,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="12" t="s">
         <v>89</v>
       </c>
@@ -2167,10 +2464,10 @@
       <c r="M7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="33"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="12" t="s">
         <v>84</v>
       </c>
@@ -2185,15 +2482,15 @@
       <c r="A8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="36" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="11" t="s">
         <v>60</v>
       </c>
@@ -2203,8 +2500,8 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="40"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="10" t="s">
         <v>59</v>
@@ -2215,15 +2512,15 @@
       <c r="A9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="36" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="11" t="s">
         <v>60</v>
       </c>
@@ -2233,8 +2530,8 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="40"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="10" t="s">
         <v>59</v>
@@ -2245,15 +2542,15 @@
       <c r="A10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="36" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="11" t="s">
         <v>60</v>
       </c>
@@ -2263,8 +2560,8 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="40"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="10" t="s">
         <v>59</v>
@@ -2275,15 +2572,15 @@
       <c r="A11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="36" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="11" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2590,8 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="10" t="s">
         <v>59</v>
@@ -2305,15 +2602,15 @@
       <c r="A12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="11" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2620,8 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="40"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="10" t="s">
         <v>59</v>
@@ -2335,15 +2632,15 @@
       <c r="A13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="36" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="11" t="s">
         <v>60</v>
       </c>
@@ -2353,8 +2650,8 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="40"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="10" t="s">
         <v>59</v>
@@ -2365,15 +2662,15 @@
       <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="36" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="11" t="s">
         <v>60</v>
       </c>
@@ -2383,8 +2680,8 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="40"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="10" t="s">
         <v>59</v>
@@ -2392,25 +2689,56 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="N14:O14"/>
@@ -2421,37 +2749,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
